--- a/biology/Zoologie/Eopsilodercidae/Eopsilodercidae.xlsx
+++ b/biology/Zoologie/Eopsilodercidae/Eopsilodercidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eopsilodercidae sont une famille fossile d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eopsilodercidae sont une famille fossile d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 18.0[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 18.0 :
 † Eopsiloderces Wunderlich, 2008
 † Loxoderces Wunderlich, 2017
 † Praepholcus Wunderlich, 2017</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wunderlich, 2008 : The dominance of ancient spider families of the Araneae: Haplogyne in the Cretaceous, and the late diversification of advanced ecribellate spiders of the Entelegynae after the Cretaceous–Tertiary boundary extinction events, with descriptions of new families. Beiträge zur Araneologie, vol. 5, p. 524–675 (en).</t>
         </is>
